--- a/1_KC1.xlsx
+++ b/1_KC1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ppr_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ivan\Dev\ppr_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E03F9D2-57E1-452E-9701-5C53F2904CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F260B848-6825-4812-BF01-F213261663B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F51E453-87F5-4321-B831-5F59ABC71A26}"/>
   </bookViews>
@@ -187,12 +187,6 @@
     <t>Проверка работоспособности систем ЭО трубопроводов ТВС и водоотведения в авт. режиме (совместно с СЭС, ТВС)</t>
   </si>
   <si>
-    <t>Проверка передачи прав управл. АСУ ТП, АСУ Э: 
-1. Проверка передачи прав и возм. управления с опер. КС (АСУ ТП, АСУ Э) на РПУ и обратно;
-2. Проверка передачи прав и возможность управления ЛЧ системой PSI с ПЭБа и с РПУ;
-3. Проверка возм. управления ЛЧ переносным пультом управления с ПЭБа, УС и УРС</t>
-  </si>
-  <si>
     <t>Мониторинг работоспособности сети передачи данных ControlNet</t>
   </si>
   <si>
@@ -200,13 +194,6 @@
 - визуальный контроль работоспособности ПЛК по светодиодной индикации</t>
   </si>
   <si>
-    <t>Диагностика:
-- просмотр сообщ. диагн. буфера ПЛК на наличие прогр. ошибок (при нал. тех. возм.);
-- диагностика работы модулей ПЛК (при наличии апп. («Hardware») диа-гностики);
-- просмотр диагн. сообщений в ЖС на АРМ;
-- анализ диагн. сообщений и устр. ошибок</t>
-  </si>
-  <si>
     <t>Сравнение показаний основных и дублирующих средств измрений на коммерческих и хозрасчетных УИРГ с дублирующими системами измерений</t>
   </si>
   <si>
@@ -542,6 +529,15 @@
   </si>
   <si>
     <t>Серверы АСУ ТП, АСУ Э, АСПСиКЗ, АСДО</t>
+  </si>
+  <si>
+    <t>Диагностика ПЛК (просмотр диаг.буфура, анализ сообщений и устр. ошибок)</t>
+  </si>
+  <si>
+    <t>Проверка передачи прав управл. АСУ ТП, АСУ Э: 
+1. Опер. КС на РПУ и обратно;
+2. ЛЧ система PSI с ПЭБа и с РПУ;
+3. ЛЧ переносным пультом управления с ПЭБа, УС и УРС</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:AN244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1860,12 +1856,12 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" ht="114.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="77.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>14</v>
@@ -1896,7 +1892,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="12"/>
@@ -1927,7 +1923,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
@@ -1953,12 +1949,12 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" ht="112.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="12"/>
@@ -1983,7 +1979,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
@@ -2014,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="6" t="s">
@@ -2042,10 +2038,10 @@
     </row>
     <row r="27" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>19</v>
@@ -2070,15 +2066,15 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>19</v>
@@ -2103,15 +2099,15 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>19</v>
@@ -2136,15 +2132,15 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
@@ -2169,15 +2165,15 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>19</v>
@@ -2202,15 +2198,15 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>19</v>
@@ -2251,15 +2247,15 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="47.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>19</v>
@@ -2284,15 +2280,15 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>19</v>
@@ -2332,16 +2328,16 @@
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>19</v>
@@ -2365,16 +2361,16 @@
       <c r="N35" s="5"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -2398,16 +2394,16 @@
       <c r="N36" s="5"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2426,15 +2422,15 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -2458,18 +2454,18 @@
       <c r="N38" s="3"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>19</v>
@@ -2494,15 +2490,15 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="35.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>19</v>
@@ -2527,15 +2523,15 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
@@ -2560,15 +2556,15 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>19</v>
@@ -2593,15 +2589,15 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>19</v>
@@ -2626,15 +2622,15 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>19</v>
@@ -2659,15 +2655,15 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>19</v>
@@ -2692,15 +2688,15 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="13"/>
@@ -2719,15 +2715,15 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>19</v>
@@ -2752,15 +2748,15 @@
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>19</v>
@@ -2785,15 +2781,15 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>19</v>
@@ -2833,18 +2829,18 @@
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>19</v>
@@ -2884,18 +2880,18 @@
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>19</v>
@@ -2920,15 +2916,15 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>19</v>
@@ -2956,10 +2952,10 @@
     </row>
     <row r="53" spans="1:33" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="13"/>
@@ -2981,10 +2977,10 @@
     </row>
     <row r="54" spans="1:33" ht="46.5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>19</v>
@@ -3012,10 +3008,10 @@
     </row>
     <row r="55" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>19</v>
@@ -3043,10 +3039,10 @@
     </row>
     <row r="56" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>19</v>
@@ -3074,10 +3070,10 @@
     </row>
     <row r="57" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="6" t="s">
@@ -3102,7 +3098,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
@@ -3123,10 +3119,10 @@
     </row>
     <row r="58" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="6" t="s">
@@ -3151,7 +3147,7 @@
       <c r="O58" s="8"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
@@ -3172,10 +3168,10 @@
     </row>
     <row r="59" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
@@ -3200,7 +3196,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="24"/>
       <c r="Q59" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
@@ -3221,10 +3217,10 @@
     </row>
     <row r="60" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="6" t="s">
@@ -3249,7 +3245,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R60" s="25"/>
       <c r="S60" s="25"/>
@@ -3270,10 +3266,10 @@
     </row>
     <row r="61" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="6" t="s">
@@ -3298,7 +3294,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
@@ -3319,10 +3315,10 @@
     </row>
     <row r="62" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>19</v>
@@ -3363,7 +3359,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="24"/>
       <c r="Q62" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R62" s="26"/>
       <c r="S62" s="26"/>
@@ -3384,10 +3380,10 @@
     </row>
     <row r="63" spans="1:33" ht="47.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
@@ -3412,7 +3408,7 @@
       <c r="O63" s="8"/>
       <c r="P63" s="24"/>
       <c r="Q63" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R63" s="25"/>
       <c r="S63" s="27"/>
@@ -3433,10 +3429,10 @@
     </row>
     <row r="64" spans="1:33" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>19</v>
@@ -3476,7 +3472,7 @@
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q64" s="24"/>
       <c r="R64" s="26"/>
@@ -3498,10 +3494,10 @@
     </row>
     <row r="65" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
@@ -3525,7 +3521,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="8"/>
       <c r="P65" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q65" s="24"/>
       <c r="R65" s="28"/>
@@ -3547,10 +3543,10 @@
     </row>
     <row r="66" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>15</v>
@@ -3574,7 +3570,7 @@
       <c r="N66" s="5"/>
       <c r="O66" s="8"/>
       <c r="P66" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q66" s="24"/>
       <c r="R66" s="28"/>
@@ -3596,10 +3592,10 @@
     </row>
     <row r="67" spans="1:36" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -3618,7 +3614,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="23"/>
       <c r="Q67" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
@@ -3639,10 +3635,10 @@
     </row>
     <row r="68" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="11" t="s">
@@ -3666,10 +3662,10 @@
       <c r="N68" s="3"/>
       <c r="O68" s="8"/>
       <c r="P68" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q68" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R68" s="25"/>
       <c r="S68" s="27"/>
@@ -3690,10 +3686,10 @@
     </row>
     <row r="69" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="6" t="s">
@@ -3718,7 +3714,7 @@
       <c r="O69" s="8"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R69" s="25"/>
       <c r="S69" s="27"/>
@@ -3739,10 +3735,10 @@
     </row>
     <row r="70" spans="1:36" ht="34.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="6" t="s">
@@ -3767,7 +3763,7 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R70" s="25"/>
       <c r="T70" s="26"/>
@@ -3780,10 +3776,10 @@
     </row>
     <row r="71" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="6" t="s">
@@ -3808,7 +3804,7 @@
       <c r="O71" s="8"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R71" s="30"/>
       <c r="S71" s="30"/>
@@ -3826,10 +3822,10 @@
     </row>
     <row r="72" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="6" t="s">
@@ -3854,7 +3850,7 @@
       <c r="O72" s="8"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R72" s="30"/>
       <c r="S72" s="30"/>
@@ -3872,10 +3868,10 @@
     </row>
     <row r="73" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="6" t="s">
@@ -3900,7 +3896,7 @@
       <c r="O73" s="8"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R73" s="30"/>
       <c r="S73" s="30"/>
@@ -3918,10 +3914,10 @@
     </row>
     <row r="74" spans="1:36" ht="34.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="6" t="s">
@@ -3946,7 +3942,7 @@
       <c r="O74" s="8"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R74" s="30"/>
       <c r="S74" s="30"/>
@@ -3964,10 +3960,10 @@
     </row>
     <row r="75" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="6" t="s">
@@ -3992,7 +3988,7 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S75" s="31"/>
       <c r="T75" s="26"/>
@@ -4015,10 +4011,10 @@
     </row>
     <row r="76" spans="1:36" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -4037,7 +4033,7 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S76" s="31"/>
       <c r="T76" s="31"/>
@@ -4060,10 +4056,10 @@
     </row>
     <row r="77" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="6" t="s">
@@ -4088,7 +4084,7 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S77" s="31"/>
       <c r="T77" s="26"/>
@@ -4111,10 +4107,10 @@
     </row>
     <row r="78" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="6" t="s">
@@ -4139,7 +4135,7 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S78" s="31"/>
       <c r="T78" s="26"/>
@@ -4162,10 +4158,10 @@
     </row>
     <row r="79" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>19</v>
@@ -4205,10 +4201,10 @@
       </c>
       <c r="O79" s="8"/>
       <c r="P79" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
@@ -4231,10 +4227,10 @@
     </row>
     <row r="80" spans="1:36" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>19</v>
@@ -4274,10 +4270,10 @@
       </c>
       <c r="O80" s="8"/>
       <c r="P80" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
@@ -4300,10 +4296,10 @@
     </row>
     <row r="81" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="6" t="s">
@@ -4328,7 +4324,7 @@
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S81" s="30"/>
       <c r="T81" s="26"/>
@@ -4348,10 +4344,10 @@
     </row>
     <row r="82" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="6" t="s">
@@ -4397,10 +4393,10 @@
     </row>
     <row r="83" spans="1:40" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="5"/>
@@ -4440,10 +4436,10 @@
     </row>
     <row r="84" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="6" t="s">
@@ -4489,10 +4485,10 @@
     </row>
     <row r="85" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="6" t="s">
@@ -4538,10 +4534,10 @@
     </row>
     <row r="86" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="6" t="s">
@@ -4584,10 +4580,10 @@
     </row>
     <row r="87" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4612,7 +4608,7 @@
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R87" s="25"/>
       <c r="S87" s="25"/>
@@ -4636,10 +4632,10 @@
     </row>
     <row r="88" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4664,7 +4660,7 @@
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R88" s="25"/>
       <c r="S88" s="25"/>
@@ -4692,10 +4688,10 @@
     </row>
     <row r="89" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4720,7 +4716,7 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R89" s="27"/>
       <c r="S89" s="27"/>
@@ -4748,10 +4744,10 @@
     </row>
     <row r="90" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4776,7 +4772,7 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R90" s="25"/>
       <c r="S90" s="25"/>
@@ -4804,10 +4800,10 @@
     </row>
     <row r="91" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4832,7 +4828,7 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R91" s="25"/>
       <c r="S91" s="25"/>
@@ -4860,10 +4856,10 @@
     </row>
     <row r="92" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>19</v>
@@ -4904,7 +4900,7 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R92" s="26"/>
       <c r="S92" s="26"/>
@@ -4932,10 +4928,10 @@
     </row>
     <row r="93" spans="1:40" ht="47.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4960,7 +4956,7 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R93" s="27"/>
       <c r="S93" s="27"/>
@@ -4988,10 +4984,10 @@
     </row>
     <row r="94" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>19</v>
@@ -5031,7 +5027,7 @@
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q94" s="8"/>
       <c r="R94" s="26"/>
@@ -5060,10 +5056,10 @@
     </row>
     <row r="95" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -5087,7 +5083,7 @@
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="28"/>
@@ -5116,10 +5112,10 @@
     </row>
     <row r="96" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>15</v>
@@ -5143,7 +5139,7 @@
       <c r="N96" s="5"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q96" s="8"/>
       <c r="R96" s="28"/>
@@ -5172,10 +5168,10 @@
     </row>
     <row r="97" spans="1:40" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -5194,7 +5190,7 @@
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R97" s="25"/>
       <c r="S97" s="25"/>
@@ -5222,10 +5218,10 @@
     </row>
     <row r="98" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -5249,10 +5245,10 @@
       </c>
       <c r="O98" s="8"/>
       <c r="P98" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R98" s="27"/>
       <c r="S98" s="27"/>
@@ -5280,10 +5276,10 @@
     </row>
     <row r="99" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -5308,7 +5304,7 @@
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R99" s="27"/>
       <c r="S99" s="27"/>
@@ -5336,10 +5332,10 @@
     </row>
     <row r="100" spans="1:40" ht="34.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -5364,7 +5360,7 @@
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T100" s="26"/>
       <c r="U100" s="25"/>
@@ -5382,10 +5378,10 @@
     </row>
     <row r="101" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -5410,7 +5406,7 @@
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R101" s="30"/>
       <c r="S101" s="30"/>
@@ -5433,10 +5429,10 @@
     </row>
     <row r="102" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
@@ -5461,7 +5457,7 @@
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R102" s="30"/>
       <c r="S102" s="30"/>
@@ -5485,10 +5481,10 @@
     </row>
     <row r="103" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -5513,7 +5509,7 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R103" s="30"/>
       <c r="S103" s="30"/>
@@ -5537,10 +5533,10 @@
     </row>
     <row r="104" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -5565,7 +5561,7 @@
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R104" s="30"/>
       <c r="S104" s="30"/>
@@ -5589,10 +5585,10 @@
     </row>
     <row r="105" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -5617,7 +5613,7 @@
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S105" s="31"/>
       <c r="T105" s="31"/>
@@ -5644,10 +5640,10 @@
     </row>
     <row r="106" spans="1:40" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -5666,7 +5662,7 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S106" s="31"/>
       <c r="T106" s="31"/>
@@ -5693,10 +5689,10 @@
     </row>
     <row r="107" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -5721,7 +5717,7 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S107" s="31"/>
       <c r="T107" s="31"/>
@@ -5748,10 +5744,10 @@
     </row>
     <row r="108" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -5776,7 +5772,7 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S108" s="31"/>
       <c r="T108" s="31"/>
@@ -5803,10 +5799,10 @@
     </row>
     <row r="109" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>19</v>
@@ -5846,10 +5842,10 @@
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
@@ -5876,10 +5872,10 @@
     </row>
     <row r="110" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>19</v>
@@ -5919,10 +5915,10 @@
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S110" s="26"/>
       <c r="T110" s="26"/>
@@ -5949,10 +5945,10 @@
     </row>
     <row r="111" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
@@ -5977,7 +5973,7 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S111" s="30"/>
       <c r="T111" s="30"/>
@@ -6000,10 +5996,10 @@
     </row>
     <row r="112" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -6051,10 +6047,10 @@
     </row>
     <row r="113" spans="1:40" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -6096,10 +6092,10 @@
     </row>
     <row r="114" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -6147,10 +6143,10 @@
     </row>
     <row r="115" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -6198,10 +6194,10 @@
     </row>
     <row r="116" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
@@ -6245,10 +6241,10 @@
     </row>
     <row r="117" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>19</v>
@@ -6273,7 +6269,7 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
       <c r="Q117" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V117" s="25"/>
       <c r="W117" s="26"/>
@@ -6291,10 +6287,10 @@
     </row>
     <row r="118" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>19</v>
@@ -6319,7 +6315,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
       <c r="Q118" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V118" s="25"/>
       <c r="W118" s="26"/>
@@ -6337,10 +6333,10 @@
     </row>
     <row r="119" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>19</v>
@@ -6365,7 +6361,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
       <c r="Q119" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V119" s="27"/>
       <c r="W119" s="26"/>
@@ -6383,10 +6379,10 @@
     </row>
     <row r="120" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>19</v>
@@ -6411,7 +6407,7 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
       <c r="Q120" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V120" s="25"/>
       <c r="W120" s="26"/>
@@ -6429,10 +6425,10 @@
     </row>
     <row r="121" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>19</v>
@@ -6457,7 +6453,7 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V121" s="25"/>
       <c r="W121" s="26"/>
@@ -6475,10 +6471,10 @@
     </row>
     <row r="122" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>19</v>
@@ -6519,7 +6515,7 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
       <c r="Q122" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V122" s="26"/>
       <c r="W122" s="26"/>
@@ -6537,10 +6533,10 @@
     </row>
     <row r="123" spans="1:40" ht="47.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>19</v>
@@ -6565,7 +6561,7 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V123" s="25"/>
       <c r="W123" s="26"/>
@@ -6583,10 +6579,10 @@
     </row>
     <row r="124" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>19</v>
@@ -6626,7 +6622,7 @@
       </c>
       <c r="O124" s="8"/>
       <c r="P124" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q124" s="8"/>
       <c r="V124" s="26"/>
@@ -6645,10 +6641,10 @@
     </row>
     <row r="125" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>19</v>
@@ -6672,7 +6668,7 @@
       <c r="N125" s="5"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q125" s="8"/>
       <c r="V125" s="28"/>
@@ -6691,10 +6687,10 @@
     </row>
     <row r="126" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>15</v>
@@ -6718,7 +6714,7 @@
       <c r="N126" s="5"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q126" s="8"/>
       <c r="V126" s="28"/>
@@ -6737,10 +6733,10 @@
     </row>
     <row r="127" spans="1:40" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -6759,7 +6755,7 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V127" s="25"/>
       <c r="W127" s="25"/>
@@ -6777,10 +6773,10 @@
     </row>
     <row r="128" spans="1:40" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>15</v>
@@ -6804,10 +6800,10 @@
       <c r="N128" s="17"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V128" s="25"/>
       <c r="W128" s="26"/>
@@ -6825,10 +6821,10 @@
     </row>
     <row r="129" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>19</v>
@@ -6853,7 +6849,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V129" s="25"/>
       <c r="W129" s="26"/>
@@ -6871,10 +6867,10 @@
     </row>
     <row r="130" spans="1:34" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>19</v>
@@ -6899,7 +6895,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
       <c r="Q130" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W130" s="26"/>
       <c r="X130" s="25"/>
@@ -6910,10 +6906,10 @@
     </row>
     <row r="131" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>19</v>
@@ -6938,7 +6934,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W131" s="26"/>
       <c r="X131" s="30"/>
@@ -6953,10 +6949,10 @@
     </row>
     <row r="132" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>19</v>
@@ -6981,7 +6977,7 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W132" s="26"/>
       <c r="X132" s="30"/>
@@ -6996,10 +6992,10 @@
     </row>
     <row r="133" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>19</v>
@@ -7024,7 +7020,7 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
       <c r="Q133" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W133" s="26"/>
       <c r="X133" s="30"/>
@@ -7039,10 +7035,10 @@
     </row>
     <row r="134" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>19</v>
@@ -7067,7 +7063,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
       <c r="Q134" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W134" s="26"/>
       <c r="X134" s="30"/>
@@ -7082,10 +7078,10 @@
     </row>
     <row r="135" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>19</v>
@@ -7110,15 +7106,15 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
       <c r="Q135" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:34" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="13"/>
@@ -7137,15 +7133,15 @@
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
       <c r="Q136" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>19</v>
@@ -7170,15 +7166,15 @@
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
       <c r="Q137" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>19</v>
@@ -7203,15 +7199,15 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>19</v>
@@ -7251,18 +7247,18 @@
       </c>
       <c r="O139" s="8"/>
       <c r="P139" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q139" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>19</v>
@@ -7302,18 +7298,18 @@
       </c>
       <c r="O140" s="8"/>
       <c r="P140" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q140" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>19</v>
@@ -7338,15 +7334,15 @@
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>19</v>
@@ -7374,10 +7370,10 @@
     </row>
     <row r="143" spans="1:34" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="13"/>
@@ -7399,10 +7395,10 @@
     </row>
     <row r="144" spans="1:34" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>19</v>
@@ -7430,10 +7426,10 @@
     </row>
     <row r="145" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>19</v>
@@ -7461,10 +7457,10 @@
     </row>
     <row r="146" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>19</v>
@@ -7492,10 +7488,10 @@
     </row>
     <row r="147" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>19</v>
@@ -7520,7 +7516,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
       <c r="Q147" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R147" s="25"/>
       <c r="S147" s="25"/>
@@ -7539,10 +7535,10 @@
     </row>
     <row r="148" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
@@ -7567,7 +7563,7 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R148" s="25"/>
       <c r="S148" s="25"/>
@@ -7586,10 +7582,10 @@
     </row>
     <row r="149" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
@@ -7614,7 +7610,7 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R149" s="27"/>
       <c r="S149" s="27"/>
@@ -7633,10 +7629,10 @@
     </row>
     <row r="150" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>19</v>
@@ -7661,7 +7657,7 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
       <c r="Q150" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R150" s="25"/>
       <c r="S150" s="25"/>
@@ -7680,10 +7676,10 @@
     </row>
     <row r="151" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>19</v>
@@ -7708,7 +7704,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R151" s="27"/>
       <c r="S151" s="25"/>
@@ -7727,10 +7723,10 @@
     </row>
     <row r="152" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>19</v>
@@ -7771,7 +7767,7 @@
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
       <c r="Q152" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R152" s="26"/>
       <c r="S152" s="26"/>
@@ -7790,10 +7786,10 @@
     </row>
     <row r="153" spans="1:31" ht="47.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>19</v>
@@ -7818,7 +7814,7 @@
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R153" s="25"/>
       <c r="S153" s="25"/>
@@ -7837,10 +7833,10 @@
     </row>
     <row r="154" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>19</v>
@@ -7880,7 +7876,7 @@
       </c>
       <c r="O154" s="8"/>
       <c r="P154" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q154" s="24"/>
       <c r="R154" s="26"/>
@@ -7900,10 +7896,10 @@
     </row>
     <row r="155" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>19</v>
@@ -7927,7 +7923,7 @@
       <c r="N155" s="5"/>
       <c r="O155" s="8"/>
       <c r="P155" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q155" s="24"/>
       <c r="R155" s="28"/>
@@ -7947,10 +7943,10 @@
     </row>
     <row r="156" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>15</v>
@@ -7974,7 +7970,7 @@
       <c r="N156" s="5"/>
       <c r="O156" s="8"/>
       <c r="P156" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q156" s="24"/>
       <c r="R156" s="28"/>
@@ -7994,10 +7990,10 @@
     </row>
     <row r="157" spans="1:31" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -8016,7 +8012,7 @@
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
       <c r="Q157" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R157" s="25"/>
       <c r="S157" s="25"/>
@@ -8035,10 +8031,10 @@
     </row>
     <row r="158" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>15</v>
@@ -8062,10 +8058,10 @@
       <c r="N158" s="3"/>
       <c r="O158" s="8"/>
       <c r="P158" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q158" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R158" s="27"/>
       <c r="S158" s="25"/>
@@ -8084,10 +8080,10 @@
     </row>
     <row r="159" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>19</v>
@@ -8112,7 +8108,7 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R159" s="25"/>
       <c r="S159" s="25"/>
@@ -8131,10 +8127,10 @@
     </row>
     <row r="160" spans="1:31" ht="32.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>19</v>
@@ -8159,7 +8155,7 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T160" s="26"/>
       <c r="U160" s="25"/>
@@ -8170,10 +8166,10 @@
     </row>
     <row r="161" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>19</v>
@@ -8198,7 +8194,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
       <c r="Q161" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T161" s="26"/>
       <c r="U161" s="30"/>
@@ -8213,10 +8209,10 @@
     </row>
     <row r="162" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>19</v>
@@ -8241,7 +8237,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
       <c r="Q162" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T162" s="26"/>
       <c r="U162" s="30"/>
@@ -8256,10 +8252,10 @@
     </row>
     <row r="163" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>19</v>
@@ -8284,7 +8280,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
       <c r="Q163" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T163" s="26"/>
       <c r="U163" s="30"/>
@@ -8299,10 +8295,10 @@
     </row>
     <row r="164" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>19</v>
@@ -8327,7 +8323,7 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
       <c r="Q164" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T164" s="26"/>
       <c r="U164" s="30"/>
@@ -8342,10 +8338,10 @@
     </row>
     <row r="165" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>19</v>
@@ -8370,7 +8366,7 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
       <c r="Q165" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R165" s="31"/>
       <c r="S165" s="31"/>
@@ -8389,10 +8385,10 @@
     </row>
     <row r="166" spans="1:31" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="13"/>
@@ -8411,7 +8407,7 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
       <c r="Q166" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R166" s="31"/>
       <c r="S166" s="31"/>
@@ -8430,10 +8426,10 @@
     </row>
     <row r="167" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>19</v>
@@ -8458,7 +8454,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
       <c r="Q167" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R167" s="31"/>
       <c r="S167" s="31"/>
@@ -8477,10 +8473,10 @@
     </row>
     <row r="168" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>19</v>
@@ -8505,7 +8501,7 @@
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
       <c r="Q168" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R168" s="31"/>
       <c r="S168" s="31"/>
@@ -8524,10 +8520,10 @@
     </row>
     <row r="169" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>19</v>
@@ -8567,10 +8563,10 @@
       </c>
       <c r="O169" s="8"/>
       <c r="P169" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q169" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R169" s="26"/>
       <c r="S169" s="26"/>
@@ -8589,10 +8585,10 @@
     </row>
     <row r="170" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>19</v>
@@ -8632,10 +8628,10 @@
       </c>
       <c r="O170" s="8"/>
       <c r="P170" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q170" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R170" s="26"/>
       <c r="S170" s="26"/>
@@ -8654,10 +8650,10 @@
     </row>
     <row r="171" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>19</v>
@@ -8682,7 +8678,7 @@
       <c r="O171" s="8"/>
       <c r="P171" s="8"/>
       <c r="Q171" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T171" s="26"/>
       <c r="U171" s="30"/>
@@ -8697,10 +8693,10 @@
     </row>
     <row r="172" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>19</v>
@@ -8742,10 +8738,10 @@
     </row>
     <row r="173" spans="1:31" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="13"/>
@@ -8781,10 +8777,10 @@
     </row>
     <row r="174" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>19</v>
@@ -8826,10 +8822,10 @@
     </row>
     <row r="175" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>19</v>
@@ -8869,10 +8865,10 @@
     </row>
     <row r="176" spans="1:31" ht="31.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>19</v>
@@ -8900,10 +8896,10 @@
     </row>
     <row r="177" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>19</v>
@@ -8928,15 +8924,15 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="5"/>
@@ -8955,15 +8951,15 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>19</v>
@@ -8988,15 +8984,15 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
       <c r="Q179" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>19</v>
@@ -9021,15 +9017,15 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
       <c r="Q180" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>19</v>
@@ -9070,15 +9066,15 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>19</v>
@@ -9119,15 +9115,15 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
       <c r="Q182" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>19</v>
@@ -9151,16 +9147,16 @@
       <c r="N183" s="5"/>
       <c r="O183" s="8"/>
       <c r="P183" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q183" s="8"/>
     </row>
     <row r="184" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>19</v>
@@ -9185,15 +9181,15 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
       <c r="Q184" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="6" t="s">
@@ -9218,15 +9214,15 @@
       <c r="O185" s="8"/>
       <c r="P185" s="8"/>
       <c r="Q185" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="6" t="s">
@@ -9251,15 +9247,15 @@
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
       <c r="Q186" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B187" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>19</v>
@@ -9300,15 +9296,15 @@
       <c r="O187" s="8"/>
       <c r="P187" s="8"/>
       <c r="Q187" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="11" t="s">
@@ -9333,15 +9329,15 @@
       <c r="O188" s="8"/>
       <c r="P188" s="8"/>
       <c r="Q188" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>19</v>
@@ -9366,15 +9362,15 @@
       <c r="O189" s="8"/>
       <c r="P189" s="8"/>
       <c r="Q189" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>19</v>
@@ -9415,15 +9411,15 @@
       <c r="O190" s="8"/>
       <c r="P190" s="8"/>
       <c r="Q190" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>19</v>
@@ -9451,10 +9447,10 @@
     </row>
     <row r="192" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="5"/>
@@ -9476,10 +9472,10 @@
     </row>
     <row r="193" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>19</v>
@@ -9507,10 +9503,10 @@
     </row>
     <row r="194" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>19</v>
@@ -9538,10 +9534,10 @@
     </row>
     <row r="195" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>15</v>
@@ -9569,10 +9565,10 @@
     </row>
     <row r="196" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>19</v>
@@ -9616,10 +9612,10 @@
     </row>
     <row r="197" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B197" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="B197" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>19</v>
@@ -9663,10 +9659,10 @@
     </row>
     <row r="198" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>19</v>
@@ -9694,10 +9690,10 @@
     </row>
     <row r="199" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>15</v>
@@ -9725,10 +9721,10 @@
     </row>
     <row r="200" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>15</v>
@@ -9772,10 +9768,10 @@
     </row>
     <row r="201" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>19</v>
@@ -9819,10 +9815,10 @@
     </row>
     <row r="202" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>19</v>
@@ -9850,10 +9846,10 @@
     </row>
     <row r="203" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="6" t="s">
@@ -9878,15 +9874,15 @@
       <c r="O203" s="8"/>
       <c r="P203" s="8"/>
       <c r="Q203" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -9905,15 +9901,15 @@
       <c r="O204" s="8"/>
       <c r="P204" s="8"/>
       <c r="Q204" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="6" t="s">
@@ -9938,15 +9934,15 @@
       <c r="O205" s="8"/>
       <c r="P205" s="8"/>
       <c r="Q205" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="11" t="s">
@@ -9971,15 +9967,15 @@
       <c r="O206" s="8"/>
       <c r="P206" s="8"/>
       <c r="Q206" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>19</v>
@@ -10020,15 +10016,15 @@
       <c r="O207" s="8"/>
       <c r="P207" s="8"/>
       <c r="Q207" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="11" t="s">
@@ -10053,15 +10049,15 @@
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
       <c r="Q208" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="6" t="s">
@@ -10086,15 +10082,15 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
       <c r="Q209" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="6" t="s">
@@ -10122,10 +10118,10 @@
     </row>
     <row r="211" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -10147,10 +10143,10 @@
     </row>
     <row r="212" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="6" t="s">
@@ -10178,10 +10174,10 @@
     </row>
     <row r="213" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B213" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="11" t="s">
@@ -10209,10 +10205,10 @@
     </row>
     <row r="214" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>19</v>
@@ -10256,10 +10252,10 @@
     </row>
     <row r="215" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>19</v>
@@ -10303,10 +10299,10 @@
     </row>
     <row r="216" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="11" t="s">
@@ -10314,7 +10310,7 @@
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G216" s="11" t="s">
         <v>15</v>
@@ -10336,10 +10332,10 @@
     </row>
     <row r="217" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>19</v>
@@ -10367,10 +10363,10 @@
     </row>
     <row r="218" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>19</v>
@@ -10398,10 +10394,10 @@
     </row>
     <row r="219" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>19</v>
@@ -10429,10 +10425,10 @@
     </row>
     <row r="220" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B220" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="B220" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>19</v>
@@ -10476,10 +10472,10 @@
     </row>
     <row r="221" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>16</v>
@@ -10507,10 +10503,10 @@
     </row>
     <row r="222" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>19</v>
@@ -10538,10 +10534,10 @@
     </row>
     <row r="223" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -10569,10 +10565,10 @@
     </row>
     <row r="224" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -10600,10 +10596,10 @@
     </row>
     <row r="225" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -10625,10 +10621,10 @@
     </row>
     <row r="226" spans="1:17" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6" t="s">
@@ -10656,10 +10652,10 @@
     </row>
     <row r="227" spans="1:17" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="11" t="s">
@@ -10687,10 +10683,10 @@
     </row>
     <row r="228" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -10712,10 +10708,10 @@
     </row>
     <row r="229" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>19</v>
@@ -10728,7 +10724,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J229" s="5"/>
       <c r="K229" s="14"/>
@@ -10743,10 +10739,10 @@
     </row>
     <row r="230" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -10755,12 +10751,12 @@
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J230" s="5"/>
       <c r="K230" s="14"/>
       <c r="L230" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M230" s="5"/>
       <c r="N230" s="5"/>
@@ -10770,10 +10766,10 @@
     </row>
     <row r="231" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -10784,7 +10780,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L231" s="5"/>
       <c r="M231" s="3"/>
@@ -10795,29 +10791,29 @@
     </row>
     <row r="232" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G232" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="H232" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H232" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -10830,10 +10826,10 @@
     </row>
     <row r="233" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -10846,7 +10842,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -10857,29 +10853,29 @@
     </row>
     <row r="234" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G234" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="H234" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H234" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
@@ -10892,29 +10888,29 @@
     </row>
     <row r="235" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="H235" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
@@ -10927,10 +10923,10 @@
     </row>
     <row r="236" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>19</v>
@@ -10948,7 +10944,7 @@
       <c r="J236" s="34"/>
       <c r="K236" s="34"/>
       <c r="L236" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M236" s="34"/>
       <c r="N236" s="10"/>
@@ -10958,10 +10954,10 @@
     </row>
     <row r="237" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C237" s="34"/>
       <c r="D237" s="34"/>
@@ -10983,10 +10979,10 @@
     </row>
     <row r="238" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B238" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>19</v>
@@ -11004,7 +11000,7 @@
       <c r="J238" s="5"/>
       <c r="K238" s="36"/>
       <c r="L238" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M238" s="35"/>
       <c r="N238" s="10"/>
@@ -11014,10 +11010,10 @@
     </row>
     <row r="239" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>19</v>
@@ -11035,7 +11031,7 @@
       <c r="J239" s="5"/>
       <c r="K239" s="36"/>
       <c r="L239" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M239" s="35"/>
       <c r="N239" s="10"/>
@@ -11045,10 +11041,10 @@
     </row>
     <row r="240" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>19</v>
@@ -11066,7 +11062,7 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M240" s="35"/>
       <c r="N240" s="10"/>
@@ -11076,10 +11072,10 @@
     </row>
     <row r="241" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>19</v>
@@ -11107,10 +11103,10 @@
     </row>
     <row r="242" spans="1:17" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>19</v>
